--- a/data_craw/quarter/balance_sheet_quarter/vpb.xlsx
+++ b/data_craw/quarter/balance_sheet_quarter/vpb.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,52 +573,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2425876000000</v>
+        <v>2798877000000</v>
       </c>
       <c r="C4" t="n">
-        <v>2459321000000</v>
+        <v>3282556000000</v>
       </c>
       <c r="D4" t="n">
-        <v>3141583000000</v>
+        <v>2729326000000</v>
       </c>
       <c r="E4" t="n">
-        <v>3009979000000</v>
+        <v>2121847000000</v>
       </c>
       <c r="F4" t="n">
-        <v>2798877000000</v>
+        <v>1917461000000</v>
       </c>
       <c r="G4" t="n">
-        <v>3282556000000</v>
+        <v>2345733000000</v>
       </c>
       <c r="H4" t="n">
-        <v>2729326000000</v>
+        <v>2181085000000</v>
       </c>
       <c r="I4" t="n">
-        <v>2121847000000</v>
+        <v>2307527000000</v>
       </c>
       <c r="J4" t="n">
-        <v>1917461000000</v>
+        <v>2270374000000</v>
       </c>
       <c r="K4" t="n">
-        <v>2345733000000</v>
+        <v>2658493000000</v>
       </c>
       <c r="L4" t="n">
-        <v>2181085000000</v>
+        <v>2610940000000</v>
       </c>
       <c r="M4" t="n">
-        <v>2307527000000</v>
+        <v>2104944000000</v>
       </c>
       <c r="N4" t="n">
-        <v>2270374000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2658493000000</v>
-      </c>
+        <v>2815202000000</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>2610940000000</v>
+        <v>2432599340266</v>
       </c>
       <c r="Q4" t="n">
-        <v>2104944000000</v>
+        <v>2597276393971</v>
       </c>
     </row>
     <row r="5">
@@ -674,52 +672,50 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1611449000000</v>
+        <v>5120560000000</v>
       </c>
       <c r="C7" t="n">
-        <v>3454138000000</v>
+        <v>5779610000000</v>
       </c>
       <c r="D7" t="n">
-        <v>1440200000000</v>
+        <v>3770309000000</v>
       </c>
       <c r="E7" t="n">
-        <v>3055805000000</v>
+        <v>5194489000000</v>
       </c>
       <c r="F7" t="n">
-        <v>5120560000000</v>
+        <v>9701663000000</v>
       </c>
       <c r="G7" t="n">
-        <v>5779610000000</v>
+        <v>10860730000000</v>
       </c>
       <c r="H7" t="n">
-        <v>3770309000000</v>
+        <v>4753558000000</v>
       </c>
       <c r="I7" t="n">
-        <v>5194489000000</v>
+        <v>4977601000000</v>
       </c>
       <c r="J7" t="n">
-        <v>9701663000000</v>
+        <v>4512134000000</v>
       </c>
       <c r="K7" t="n">
-        <v>10860730000000</v>
+        <v>9935379000000</v>
       </c>
       <c r="L7" t="n">
-        <v>4753558000000</v>
+        <v>9201959000000</v>
       </c>
       <c r="M7" t="n">
-        <v>4977601000000</v>
+        <v>10282392000000</v>
       </c>
       <c r="N7" t="n">
-        <v>4512134000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>9935379000000</v>
-      </c>
+        <v>9033687000000</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>9201959000000</v>
+        <v>7759147995112</v>
       </c>
       <c r="Q7" t="n">
-        <v>10282392000000</v>
+        <v>14975549964937</v>
       </c>
     </row>
     <row r="8">
@@ -798,52 +794,50 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16300937000000</v>
+        <v>26917855000000</v>
       </c>
       <c r="C11" t="n">
-        <v>20097552000000</v>
+        <v>19554808000000</v>
       </c>
       <c r="D11" t="n">
-        <v>13323869000000</v>
+        <v>18789761000000</v>
       </c>
       <c r="E11" t="n">
-        <v>26033839000000</v>
+        <v>34483219000000</v>
       </c>
       <c r="F11" t="n">
-        <v>26917855000000</v>
+        <v>38915525000000</v>
       </c>
       <c r="G11" t="n">
-        <v>19554808000000</v>
+        <v>57104628000000</v>
       </c>
       <c r="H11" t="n">
-        <v>18789761000000</v>
+        <v>51850561000000</v>
       </c>
       <c r="I11" t="n">
-        <v>34483219000000</v>
+        <v>62025635000000</v>
       </c>
       <c r="J11" t="n">
-        <v>38915525000000</v>
+        <v>47833645000000</v>
       </c>
       <c r="K11" t="n">
-        <v>57104628000000</v>
+        <v>47965493000000</v>
       </c>
       <c r="L11" t="n">
-        <v>51850561000000</v>
+        <v>69935068000000</v>
       </c>
       <c r="M11" t="n">
-        <v>62025635000000</v>
+        <v>105026761000000</v>
       </c>
       <c r="N11" t="n">
-        <v>47833645000000</v>
-      </c>
-      <c r="O11" t="n">
-        <v>47965493000000</v>
-      </c>
+        <v>84269040000000</v>
+      </c>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>69935068000000</v>
+        <v>98545790058583</v>
       </c>
       <c r="Q11" t="n">
-        <v>105026761000000</v>
+        <v>115858610228901</v>
       </c>
     </row>
     <row r="12">
@@ -853,52 +847,50 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14471995000000</v>
+        <v>19215220000000</v>
       </c>
       <c r="C12" t="n">
-        <v>15482985000000</v>
+        <v>13829025000000</v>
       </c>
       <c r="D12" t="n">
-        <v>9064340000000</v>
+        <v>13609463000000</v>
       </c>
       <c r="E12" t="n">
-        <v>19798164000000</v>
+        <v>24910014000000</v>
       </c>
       <c r="F12" t="n">
-        <v>19215220000000</v>
+        <v>34832390000000</v>
       </c>
       <c r="G12" t="n">
-        <v>13829025000000</v>
+        <v>40329730000000</v>
       </c>
       <c r="H12" t="n">
-        <v>13609463000000</v>
+        <v>39494024000000</v>
       </c>
       <c r="I12" t="n">
-        <v>24910014000000</v>
+        <v>44806073000000</v>
       </c>
       <c r="J12" t="n">
-        <v>34832390000000</v>
+        <v>32114711000000</v>
       </c>
       <c r="K12" t="n">
-        <v>40329730000000</v>
+        <v>40771879000000</v>
       </c>
       <c r="L12" t="n">
-        <v>39494024000000</v>
+        <v>63083170000000</v>
       </c>
       <c r="M12" t="n">
-        <v>44806073000000</v>
+        <v>95522737000000</v>
       </c>
       <c r="N12" t="n">
-        <v>32114711000000</v>
-      </c>
-      <c r="O12" t="n">
-        <v>40771879000000</v>
-      </c>
+        <v>14617692000000</v>
+      </c>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>63083170000000</v>
+        <v>77117009944480</v>
       </c>
       <c r="Q12" t="n">
-        <v>95522737000000</v>
+        <v>84694542345112</v>
       </c>
     </row>
     <row r="13">
@@ -908,50 +900,48 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1828942000000</v>
+        <v>7702635000000</v>
       </c>
       <c r="C13" t="n">
-        <v>4614567000000</v>
+        <v>5725783000000</v>
       </c>
       <c r="D13" t="n">
-        <v>4259529000000</v>
+        <v>5180298000000</v>
       </c>
       <c r="E13" t="n">
-        <v>6235675000000</v>
+        <v>9573205000000</v>
       </c>
       <c r="F13" t="n">
-        <v>7702635000000</v>
+        <v>4083135000000</v>
       </c>
       <c r="G13" t="n">
-        <v>5725783000000</v>
-      </c>
-      <c r="H13" t="n">
-        <v>5180298000000</v>
-      </c>
+        <v>16858044000000</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>9573205000000</v>
+        <v>17219562000000</v>
       </c>
       <c r="J13" t="n">
-        <v>4083135000000</v>
+        <v>15718934000000</v>
       </c>
       <c r="K13" t="n">
-        <v>16858044000000</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
+        <v>7193614000000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>6851898000000</v>
+      </c>
       <c r="M13" t="n">
-        <v>17219562000000</v>
+        <v>9504024000000</v>
       </c>
       <c r="N13" t="n">
-        <v>15718934000000</v>
-      </c>
-      <c r="O13" t="n">
-        <v>7193614000000</v>
-      </c>
+        <v>13111028000000</v>
+      </c>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>6851898000000</v>
+        <v>21428780114103</v>
       </c>
       <c r="Q13" t="n">
-        <v>9504024000000</v>
+        <v>31164067883789</v>
       </c>
     </row>
     <row r="14">
@@ -1080,16 +1070,16 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>-83146000000</v>
+      </c>
+      <c r="H19" t="n">
+        <v>12356537000000</v>
+      </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>-83146000000</v>
-      </c>
-      <c r="L19" t="n">
-        <v>12356537000000</v>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1103,52 +1093,50 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2856573000000</v>
+        <v>100400000000</v>
       </c>
       <c r="C20" t="n">
-        <v>1566592000000</v>
+        <v>493214000000</v>
       </c>
       <c r="D20" t="n">
-        <v>1117714000000</v>
+        <v>5504075000000</v>
       </c>
       <c r="E20" t="n">
-        <v>291361000000</v>
+        <v>50041000000</v>
       </c>
       <c r="F20" t="n">
-        <v>100400000000</v>
+        <v>3159193000000</v>
       </c>
       <c r="G20" t="n">
-        <v>493214000000</v>
+        <v>6970941000000</v>
       </c>
       <c r="H20" t="n">
-        <v>5504075000000</v>
+        <v>3838137000000</v>
       </c>
       <c r="I20" t="n">
-        <v>50041000000</v>
+        <v>5576455000000</v>
       </c>
       <c r="J20" t="n">
-        <v>3159193000000</v>
+        <v>5517145000000</v>
       </c>
       <c r="K20" t="n">
-        <v>6970941000000</v>
+        <v>7793447000000</v>
       </c>
       <c r="L20" t="n">
-        <v>3838137000000</v>
+        <v>10854845000000</v>
       </c>
       <c r="M20" t="n">
-        <v>5576455000000</v>
+        <v>11978688000000</v>
       </c>
       <c r="N20" t="n">
-        <v>5517145000000</v>
-      </c>
-      <c r="O20" t="n">
-        <v>7793447000000</v>
-      </c>
+        <v>13192931000000</v>
+      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>10854845000000</v>
+        <v>11331235547487</v>
       </c>
       <c r="Q20" t="n">
-        <v>11978688000000</v>
+        <v>11494634019380</v>
       </c>
     </row>
     <row r="21">
@@ -1158,52 +1146,50 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2864216000000</v>
+        <v>100400000000</v>
       </c>
       <c r="C21" t="n">
-        <v>1571141000000</v>
+        <v>493214000000</v>
       </c>
       <c r="D21" t="n">
-        <v>1122697000000</v>
+        <v>5557235000000</v>
       </c>
       <c r="E21" t="n">
-        <v>291909000000</v>
+        <v>50041000000</v>
       </c>
       <c r="F21" t="n">
-        <v>100400000000</v>
+        <v>3184835000000</v>
       </c>
       <c r="G21" t="n">
-        <v>493214000000</v>
+        <v>7005061000000</v>
       </c>
       <c r="H21" t="n">
-        <v>5557235000000</v>
+        <v>3748546000000</v>
       </c>
       <c r="I21" t="n">
-        <v>50041000000</v>
+        <v>5616365000000</v>
       </c>
       <c r="J21" t="n">
-        <v>3184835000000</v>
+        <v>5557136000000</v>
       </c>
       <c r="K21" t="n">
-        <v>7005061000000</v>
+        <v>7850639000000</v>
       </c>
       <c r="L21" t="n">
-        <v>3748546000000</v>
+        <v>10934415000000</v>
       </c>
       <c r="M21" t="n">
-        <v>5616365000000</v>
+        <v>12057093000000</v>
       </c>
       <c r="N21" t="n">
-        <v>5557136000000</v>
-      </c>
-      <c r="O21" t="n">
-        <v>7850639000000</v>
-      </c>
+        <v>-81903000000</v>
+      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>10934415000000</v>
+        <v>11406078540045</v>
       </c>
       <c r="Q21" t="n">
-        <v>12057093000000</v>
+        <v>11576884604529</v>
       </c>
     </row>
     <row r="22">
@@ -1212,47 +1198,45 @@
           <t>2. Dự phòng giảm giá hàng tồn kho</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>-7643000000</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-4549000000</v>
-      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>-4983000000</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-548000000</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+        <v>-53160000000</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>-25642000000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-34120000000</v>
+      </c>
       <c r="H22" t="n">
-        <v>-53160000000</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>-10409000000</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-39910000000</v>
+      </c>
       <c r="J22" t="n">
-        <v>-25642000000</v>
+        <v>-39991000000</v>
       </c>
       <c r="K22" t="n">
-        <v>-34120000000</v>
+        <v>-57192000000</v>
       </c>
       <c r="L22" t="n">
-        <v>-10409000000</v>
+        <v>-79570000000</v>
       </c>
       <c r="M22" t="n">
-        <v>-39910000000</v>
+        <v>-78405000000</v>
       </c>
       <c r="N22" t="n">
-        <v>-39991000000</v>
-      </c>
-      <c r="O22" t="n">
-        <v>-57192000000</v>
-      </c>
+        <v>-81903000000</v>
+      </c>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>-79570000000</v>
+        <v>-74842992558</v>
       </c>
       <c r="Q22" t="n">
-        <v>-78405000000</v>
+        <v>-82250585149</v>
       </c>
     </row>
     <row r="23">
@@ -1263,31 +1247,33 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="n">
-        <v>252332000000</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>50728000000</v>
+      </c>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>103299000000</v>
+      </c>
+      <c r="H23" t="n">
+        <v>33547000000</v>
+      </c>
       <c r="I23" t="n">
-        <v>50728000000</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>103299000000</v>
-      </c>
-      <c r="L23" t="n">
-        <v>33547000000</v>
-      </c>
-      <c r="M23" t="n">
         <v>519734000000</v>
       </c>
+      <c r="J23" t="n">
+        <v>1120686000000</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>1120686000000</v>
+        <v>75180000000</v>
       </c>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+      <c r="P23" t="n">
+        <v>582773904945</v>
+      </c>
       <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1435,52 +1421,50 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>186310000000</v>
+        <v>174124000000</v>
       </c>
       <c r="C30" t="n">
-        <v>174134000000</v>
+        <v>238581000000</v>
       </c>
       <c r="D30" t="n">
-        <v>133596000000</v>
+        <v>238581000000</v>
       </c>
       <c r="E30" t="n">
-        <v>152181000000</v>
+        <v>238581000000</v>
       </c>
       <c r="F30" t="n">
-        <v>174124000000</v>
+        <v>233581000000</v>
       </c>
       <c r="G30" t="n">
-        <v>238581000000</v>
+        <v>249710000000</v>
       </c>
       <c r="H30" t="n">
-        <v>238581000000</v>
+        <v>249710000000</v>
       </c>
       <c r="I30" t="n">
-        <v>238581000000</v>
+        <v>249710000000</v>
       </c>
       <c r="J30" t="n">
-        <v>233581000000</v>
+        <v>249710000000</v>
       </c>
       <c r="K30" t="n">
-        <v>249710000000</v>
+        <v>189210000000</v>
       </c>
       <c r="L30" t="n">
-        <v>249710000000</v>
+        <v>189210000000</v>
       </c>
       <c r="M30" t="n">
-        <v>249710000000</v>
+        <v>904095000000</v>
       </c>
       <c r="N30" t="n">
-        <v>249710000000</v>
-      </c>
-      <c r="O30" t="n">
         <v>189210000000</v>
       </c>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>189210000000</v>
+        <v>189210390001</v>
       </c>
       <c r="Q30" t="n">
-        <v>904095000000</v>
+        <v>189210390000</v>
       </c>
     </row>
     <row r="31">
@@ -1559,7 +1543,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>227602000000</v>
+        <v>238602000000</v>
       </c>
       <c r="C34" t="n">
         <v>238602000000</v>
@@ -1571,40 +1555,38 @@
         <v>238602000000</v>
       </c>
       <c r="F34" t="n">
-        <v>238602000000</v>
+        <v>233602000000</v>
       </c>
       <c r="G34" t="n">
-        <v>238602000000</v>
+        <v>249731000000</v>
       </c>
       <c r="H34" t="n">
-        <v>238602000000</v>
+        <v>249710000000</v>
       </c>
       <c r="I34" t="n">
-        <v>238602000000</v>
+        <v>249710000000</v>
       </c>
       <c r="J34" t="n">
-        <v>233602000000</v>
+        <v>249710000000</v>
       </c>
       <c r="K34" t="n">
-        <v>249731000000</v>
+        <v>189210000000</v>
       </c>
       <c r="L34" t="n">
-        <v>249710000000</v>
+        <v>189210000000</v>
       </c>
       <c r="M34" t="n">
-        <v>249710000000</v>
+        <v>904095000000</v>
       </c>
       <c r="N34" t="n">
-        <v>249710000000</v>
-      </c>
-      <c r="O34" t="n">
         <v>189210000000</v>
       </c>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>189210000000</v>
+        <v>189210390000</v>
       </c>
       <c r="Q34" t="n">
-        <v>904095000000</v>
+        <v>189210390000</v>
       </c>
     </row>
     <row r="35">
@@ -1660,40 +1642,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-41292000000</v>
+        <v>-64478000000</v>
       </c>
       <c r="C37" t="n">
-        <v>-64468000000</v>
+        <v>-21000000</v>
       </c>
       <c r="D37" t="n">
-        <v>-105006000000</v>
+        <v>-21000000</v>
       </c>
       <c r="E37" t="n">
-        <v>-86421000000</v>
+        <v>-21000000</v>
       </c>
       <c r="F37" t="n">
-        <v>-64478000000</v>
+        <v>-21000000</v>
       </c>
       <c r="G37" t="n">
         <v>-21000000</v>
       </c>
-      <c r="H37" t="n">
-        <v>-21000000</v>
-      </c>
-      <c r="I37" t="n">
-        <v>-21000000</v>
-      </c>
-      <c r="J37" t="n">
-        <v>-21000000</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-21000000</v>
-      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
       <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -1703,52 +1679,50 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1844497000000</v>
+        <v>1824043000000</v>
       </c>
       <c r="C38" t="n">
-        <v>1922972000000</v>
+        <v>1862830000000</v>
       </c>
       <c r="D38" t="n">
-        <v>1843301000000</v>
+        <v>1803362000000</v>
       </c>
       <c r="E38" t="n">
-        <v>1870170000000</v>
+        <v>1749489000000</v>
       </c>
       <c r="F38" t="n">
-        <v>1824043000000</v>
+        <v>1723271000000</v>
       </c>
       <c r="G38" t="n">
-        <v>1862830000000</v>
+        <v>1872973000000</v>
       </c>
       <c r="H38" t="n">
-        <v>1803362000000</v>
+        <v>1809994000000</v>
       </c>
       <c r="I38" t="n">
-        <v>1749489000000</v>
+        <v>1784089000000</v>
       </c>
       <c r="J38" t="n">
-        <v>1723271000000</v>
+        <v>1843886000000</v>
       </c>
       <c r="K38" t="n">
-        <v>1872973000000</v>
+        <v>1858126000000</v>
       </c>
       <c r="L38" t="n">
-        <v>1809994000000</v>
+        <v>1782683000000</v>
       </c>
       <c r="M38" t="n">
-        <v>1784089000000</v>
+        <v>1759134000000</v>
       </c>
       <c r="N38" t="n">
-        <v>1843886000000</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1858126000000</v>
-      </c>
+        <v>1898896000000</v>
+      </c>
+      <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>1782683000000</v>
+        <v>1916305405842</v>
       </c>
       <c r="Q38" t="n">
-        <v>1759134000000</v>
+        <v>1926393400309</v>
       </c>
     </row>
     <row r="39">
@@ -1758,52 +1732,50 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1317922000000</v>
+        <v>1227037000000</v>
       </c>
       <c r="C39" t="n">
-        <v>1342690000000</v>
+        <v>1212163000000</v>
       </c>
       <c r="D39" t="n">
-        <v>1297175000000</v>
+        <v>1170564000000</v>
       </c>
       <c r="E39" t="n">
-        <v>1258561000000</v>
+        <v>1136642000000</v>
       </c>
       <c r="F39" t="n">
-        <v>1227037000000</v>
+        <v>1096364000000</v>
       </c>
       <c r="G39" t="n">
-        <v>1212163000000</v>
+        <v>1216957000000</v>
       </c>
       <c r="H39" t="n">
-        <v>1170564000000</v>
+        <v>1174529000000</v>
       </c>
       <c r="I39" t="n">
-        <v>1136642000000</v>
+        <v>1149229000000</v>
       </c>
       <c r="J39" t="n">
-        <v>1096364000000</v>
+        <v>1188276000000</v>
       </c>
       <c r="K39" t="n">
-        <v>1216957000000</v>
+        <v>1219108000000</v>
       </c>
       <c r="L39" t="n">
-        <v>1174529000000</v>
+        <v>1180882000000</v>
       </c>
       <c r="M39" t="n">
-        <v>1149229000000</v>
+        <v>1168104000000</v>
       </c>
       <c r="N39" t="n">
-        <v>1188276000000</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1219108000000</v>
-      </c>
+        <v>1318938000000</v>
+      </c>
+      <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
-        <v>1180882000000</v>
+        <v>1285300494751</v>
       </c>
       <c r="Q39" t="n">
-        <v>1168104000000</v>
+        <v>1335640619037</v>
       </c>
     </row>
     <row r="40">
@@ -1813,52 +1785,50 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2315097000000</v>
+        <v>2382308000000</v>
       </c>
       <c r="C40" t="n">
-        <v>2380109000000</v>
+        <v>2398141000000</v>
       </c>
       <c r="D40" t="n">
-        <v>2386233000000</v>
+        <v>2404219000000</v>
       </c>
       <c r="E40" t="n">
-        <v>2396730000000</v>
+        <v>2395802000000</v>
       </c>
       <c r="F40" t="n">
-        <v>2382308000000</v>
+        <v>2396613000000</v>
       </c>
       <c r="G40" t="n">
-        <v>2398141000000</v>
+        <v>2559025000000</v>
       </c>
       <c r="H40" t="n">
-        <v>2404219000000</v>
+        <v>2560172000000</v>
       </c>
       <c r="I40" t="n">
-        <v>2395802000000</v>
+        <v>2569296000000</v>
       </c>
       <c r="J40" t="n">
-        <v>2396613000000</v>
+        <v>2646311000000</v>
       </c>
       <c r="K40" t="n">
-        <v>2559025000000</v>
+        <v>2733537000000</v>
       </c>
       <c r="L40" t="n">
-        <v>2560172000000</v>
+        <v>2741524000000</v>
       </c>
       <c r="M40" t="n">
-        <v>2569296000000</v>
+        <v>2773497000000</v>
       </c>
       <c r="N40" t="n">
-        <v>2646311000000</v>
-      </c>
-      <c r="O40" t="n">
-        <v>2733537000000</v>
-      </c>
+        <v>2986260000000</v>
+      </c>
+      <c r="O40" t="inlineStr"/>
       <c r="P40" t="n">
-        <v>2741524000000</v>
+        <v>3033887163845</v>
       </c>
       <c r="Q40" t="n">
-        <v>2773497000000</v>
+        <v>3151268802658</v>
       </c>
     </row>
     <row r="41">
@@ -1868,52 +1838,50 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-997175000000</v>
+        <v>-1155271000000</v>
       </c>
       <c r="C41" t="n">
-        <v>-1037419000000</v>
+        <v>-1185978000000</v>
       </c>
       <c r="D41" t="n">
-        <v>-1089058000000</v>
+        <v>-1233655000000</v>
       </c>
       <c r="E41" t="n">
-        <v>-1138169000000</v>
+        <v>-1259160000000</v>
       </c>
       <c r="F41" t="n">
-        <v>-1155271000000</v>
+        <v>-1300249000000</v>
       </c>
       <c r="G41" t="n">
-        <v>-1185978000000</v>
+        <v>-1342068000000</v>
       </c>
       <c r="H41" t="n">
-        <v>-1233655000000</v>
+        <v>-1385643000000</v>
       </c>
       <c r="I41" t="n">
-        <v>-1259160000000</v>
+        <v>-1420067000000</v>
       </c>
       <c r="J41" t="n">
-        <v>-1300249000000</v>
+        <v>-1458035000000</v>
       </c>
       <c r="K41" t="n">
-        <v>-1342068000000</v>
+        <v>-1514429000000</v>
       </c>
       <c r="L41" t="n">
-        <v>-1385643000000</v>
+        <v>-1560642000000</v>
       </c>
       <c r="M41" t="n">
-        <v>-1420067000000</v>
+        <v>-106393000000</v>
       </c>
       <c r="N41" t="n">
-        <v>-1458035000000</v>
-      </c>
-      <c r="O41" t="n">
-        <v>-1514429000000</v>
-      </c>
+        <v>-1667322000000</v>
+      </c>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="n">
-        <v>-1560642000000</v>
+        <v>-1748586669094</v>
       </c>
       <c r="Q41" t="n">
-        <v>-106393000000</v>
+        <v>-1815628183621</v>
       </c>
     </row>
     <row r="42">
@@ -1992,52 +1960,50 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>526575000000</v>
+        <v>597006000000</v>
       </c>
       <c r="C45" t="n">
-        <v>580282000000</v>
+        <v>650667000000</v>
       </c>
       <c r="D45" t="n">
-        <v>546126000000</v>
+        <v>632798000000</v>
       </c>
       <c r="E45" t="n">
-        <v>611609000000</v>
+        <v>612847000000</v>
       </c>
       <c r="F45" t="n">
-        <v>597006000000</v>
+        <v>626907000000</v>
       </c>
       <c r="G45" t="n">
-        <v>650667000000</v>
+        <v>656016000000</v>
       </c>
       <c r="H45" t="n">
-        <v>632798000000</v>
+        <v>635465000000</v>
       </c>
       <c r="I45" t="n">
-        <v>612847000000</v>
+        <v>634860000000</v>
       </c>
       <c r="J45" t="n">
-        <v>626907000000</v>
+        <v>655610000000</v>
       </c>
       <c r="K45" t="n">
-        <v>656016000000</v>
+        <v>639018000000</v>
       </c>
       <c r="L45" t="n">
-        <v>635465000000</v>
+        <v>601801000000</v>
       </c>
       <c r="M45" t="n">
-        <v>634860000000</v>
+        <v>591030000000</v>
       </c>
       <c r="N45" t="n">
-        <v>655610000000</v>
-      </c>
-      <c r="O45" t="n">
-        <v>639018000000</v>
-      </c>
+        <v>579958000000</v>
+      </c>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="n">
-        <v>601801000000</v>
+        <v>631004911091</v>
       </c>
       <c r="Q45" t="n">
-        <v>591030000000</v>
+        <v>590752781272</v>
       </c>
     </row>
     <row r="46">
@@ -2047,52 +2013,50 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1012746000000</v>
+        <v>1245875000000</v>
       </c>
       <c r="C46" t="n">
-        <v>1102483000000</v>
+        <v>1351718000000</v>
       </c>
       <c r="D46" t="n">
-        <v>1106611000000</v>
+        <v>1382097000000</v>
       </c>
       <c r="E46" t="n">
-        <v>1215587000000</v>
+        <v>1407269000000</v>
       </c>
       <c r="F46" t="n">
-        <v>1245875000000</v>
+        <v>1467951000000</v>
       </c>
       <c r="G46" t="n">
-        <v>1351718000000</v>
+        <v>1552403000000</v>
       </c>
       <c r="H46" t="n">
-        <v>1382097000000</v>
+        <v>1576327000000</v>
       </c>
       <c r="I46" t="n">
-        <v>1407269000000</v>
+        <v>1621292000000</v>
       </c>
       <c r="J46" t="n">
-        <v>1467951000000</v>
+        <v>1688978000000</v>
       </c>
       <c r="K46" t="n">
-        <v>1552403000000</v>
+        <v>1709523000000</v>
       </c>
       <c r="L46" t="n">
-        <v>1576327000000</v>
+        <v>1720968000000</v>
       </c>
       <c r="M46" t="n">
-        <v>1621292000000</v>
+        <v>1762952000000</v>
       </c>
       <c r="N46" t="n">
-        <v>1688978000000</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1709523000000</v>
-      </c>
+        <v>1802524000000</v>
+      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="n">
-        <v>1720968000000</v>
+        <v>1967012713145</v>
       </c>
       <c r="Q46" t="n">
-        <v>1762952000000</v>
+        <v>1980649415266</v>
       </c>
     </row>
     <row r="47">
@@ -2102,52 +2066,50 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-486171000000</v>
+        <v>-648869000000</v>
       </c>
       <c r="C47" t="n">
-        <v>-522201000000</v>
+        <v>-701051000000</v>
       </c>
       <c r="D47" t="n">
-        <v>-560485000000</v>
+        <v>-749299000000</v>
       </c>
       <c r="E47" t="n">
-        <v>-603978000000</v>
+        <v>-794422000000</v>
       </c>
       <c r="F47" t="n">
-        <v>-648869000000</v>
+        <v>-841044000000</v>
       </c>
       <c r="G47" t="n">
-        <v>-701051000000</v>
+        <v>-896387000000</v>
       </c>
       <c r="H47" t="n">
-        <v>-749299000000</v>
+        <v>-940862000000</v>
       </c>
       <c r="I47" t="n">
-        <v>-794422000000</v>
+        <v>-986432000000</v>
       </c>
       <c r="J47" t="n">
-        <v>-841044000000</v>
+        <v>-1033368000000</v>
       </c>
       <c r="K47" t="n">
-        <v>-896387000000</v>
+        <v>-1070505000000</v>
       </c>
       <c r="L47" t="n">
-        <v>-940862000000</v>
+        <v>-1119167000000</v>
       </c>
       <c r="M47" t="n">
-        <v>-986432000000</v>
+        <v>-1171922000000</v>
       </c>
       <c r="N47" t="n">
-        <v>-1033368000000</v>
-      </c>
-      <c r="O47" t="n">
-        <v>-1070505000000</v>
-      </c>
+        <v>-1222566000000</v>
+      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="n">
-        <v>-1119167000000</v>
+        <v>-1336007802054</v>
       </c>
       <c r="Q47" t="n">
-        <v>-1171922000000</v>
+        <v>-1389896633994</v>
       </c>
     </row>
     <row r="48">
@@ -2295,52 +2257,50 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>20246988000000</v>
+        <v>25442066000000</v>
       </c>
       <c r="C54" t="n">
-        <v>25709899000000</v>
+        <v>24751811000000</v>
       </c>
       <c r="D54" t="n">
-        <v>24241552000000</v>
+        <v>26606800000000</v>
       </c>
       <c r="E54" t="n">
-        <v>24101551000000</v>
+        <v>33681045000000</v>
       </c>
       <c r="F54" t="n">
-        <v>25442066000000</v>
+        <v>35869088000000</v>
       </c>
       <c r="G54" t="n">
-        <v>24751811000000</v>
+        <v>45754022000000</v>
       </c>
       <c r="H54" t="n">
-        <v>26606800000000</v>
+        <v>42967888000000</v>
       </c>
       <c r="I54" t="n">
-        <v>33681045000000</v>
+        <v>48451004000000</v>
       </c>
       <c r="J54" t="n">
-        <v>35869088000000</v>
+        <v>53770439000000</v>
       </c>
       <c r="K54" t="n">
-        <v>45754022000000</v>
+        <v>52042049000000</v>
       </c>
       <c r="L54" t="n">
-        <v>42967888000000</v>
+        <v>53226120000000</v>
       </c>
       <c r="M54" t="n">
-        <v>48451004000000</v>
+        <v>51866894000000</v>
       </c>
       <c r="N54" t="n">
-        <v>53770439000000</v>
-      </c>
-      <c r="O54" t="n">
-        <v>52042049000000</v>
-      </c>
+        <v>57178197000000</v>
+      </c>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="n">
-        <v>53226120000000</v>
+        <v>48381384780265</v>
       </c>
       <c r="Q54" t="n">
-        <v>51866894000000</v>
+        <v>48068083258275</v>
       </c>
     </row>
     <row r="55">
@@ -2350,50 +2310,48 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>11792895000000</v>
+        <v>17529694000000</v>
       </c>
       <c r="C55" t="n">
-        <v>16925459000000</v>
+        <v>17409351000000</v>
       </c>
       <c r="D55" t="n">
-        <v>15963440000000</v>
+        <v>19542476000000</v>
       </c>
       <c r="E55" t="n">
-        <v>16753088000000</v>
-      </c>
-      <c r="F55" t="n">
-        <v>17529694000000</v>
-      </c>
+        <v>26881964000000</v>
+      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="n">
-        <v>17409351000000</v>
+        <v>39015325000000</v>
       </c>
       <c r="H55" t="n">
-        <v>19542476000000</v>
+        <v>35651963000000</v>
       </c>
       <c r="I55" t="n">
-        <v>26881964000000</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>40129845000000</v>
+      </c>
+      <c r="J55" t="n">
+        <v>44734571000000</v>
+      </c>
       <c r="K55" t="n">
-        <v>39015325000000</v>
+        <v>39409274000000</v>
       </c>
       <c r="L55" t="n">
-        <v>35651963000000</v>
+        <v>35444235000000</v>
       </c>
       <c r="M55" t="n">
-        <v>40129845000000</v>
+        <v>35327177000000</v>
       </c>
       <c r="N55" t="n">
-        <v>44734571000000</v>
-      </c>
-      <c r="O55" t="n">
-        <v>39409274000000</v>
-      </c>
+        <v>40780754000000</v>
+      </c>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="n">
-        <v>35444235000000</v>
+        <v>31229240854029</v>
       </c>
       <c r="Q55" t="n">
-        <v>35327177000000</v>
+        <v>31411137587352</v>
       </c>
     </row>
     <row r="56">
@@ -2403,52 +2361,50 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>5511796000000</v>
+        <v>5660772000000</v>
       </c>
       <c r="C56" t="n">
-        <v>6032377000000</v>
+        <v>5036836000000</v>
       </c>
       <c r="D56" t="n">
-        <v>5589722000000</v>
+        <v>5069783000000</v>
       </c>
       <c r="E56" t="n">
-        <v>4908329000000</v>
+        <v>4935176000000</v>
       </c>
       <c r="F56" t="n">
-        <v>5660772000000</v>
+        <v>4636247000000</v>
       </c>
       <c r="G56" t="n">
-        <v>5036836000000</v>
+        <v>4897204000000</v>
       </c>
       <c r="H56" t="n">
-        <v>5069783000000</v>
+        <v>5274526000000</v>
       </c>
       <c r="I56" t="n">
-        <v>4935176000000</v>
+        <v>5986392000000</v>
       </c>
       <c r="J56" t="n">
-        <v>4636247000000</v>
+        <v>6576973000000</v>
       </c>
       <c r="K56" t="n">
-        <v>4897204000000</v>
+        <v>7878994000000</v>
       </c>
       <c r="L56" t="n">
-        <v>5274526000000</v>
+        <v>556318000000</v>
       </c>
       <c r="M56" t="n">
-        <v>5986392000000</v>
+        <v>7538054000000</v>
       </c>
       <c r="N56" t="n">
-        <v>6576973000000</v>
-      </c>
-      <c r="O56" t="n">
-        <v>7878994000000</v>
-      </c>
+        <v>8114205000000</v>
+      </c>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="n">
-        <v>556318000000</v>
+        <v>8952844882049</v>
       </c>
       <c r="Q56" t="n">
-        <v>7538054000000</v>
+        <v>8522172039652</v>
       </c>
     </row>
     <row r="57">
@@ -2466,16 +2422,22 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>628072000000</v>
+      </c>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="n">
-        <v>628072000000</v>
-      </c>
-      <c r="P57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>1301472000000</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1300413000000</v>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="n">
+        <v>1301298698821</v>
+      </c>
       <c r="Q57" t="n">
-        <v>1301472000000</v>
+        <v>1304013354988</v>
       </c>
     </row>
     <row r="58">
@@ -2485,52 +2447,50 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2986208000000</v>
+        <v>2289010000000</v>
       </c>
       <c r="C58" t="n">
-        <v>2780706000000</v>
+        <v>2345902000000</v>
       </c>
       <c r="D58" t="n">
-        <v>2719672000000</v>
+        <v>2040035000000</v>
       </c>
       <c r="E58" t="n">
-        <v>2472742000000</v>
+        <v>1909810000000</v>
       </c>
       <c r="F58" t="n">
-        <v>2289010000000</v>
+        <v>1631627000000</v>
       </c>
       <c r="G58" t="n">
-        <v>2345902000000</v>
+        <v>1893820000000</v>
       </c>
       <c r="H58" t="n">
-        <v>2040035000000</v>
+        <v>2098305000000</v>
       </c>
       <c r="I58" t="n">
-        <v>1909810000000</v>
+        <v>2390355000000</v>
       </c>
       <c r="J58" t="n">
-        <v>1631627000000</v>
+        <v>2514483000000</v>
       </c>
       <c r="K58" t="n">
-        <v>1893820000000</v>
+        <v>4205385000000</v>
       </c>
       <c r="L58" t="n">
-        <v>2098305000000</v>
+        <v>8725879000000</v>
       </c>
       <c r="M58" t="n">
-        <v>2390355000000</v>
+        <v>7791692000000</v>
       </c>
       <c r="N58" t="n">
-        <v>2514483000000</v>
-      </c>
-      <c r="O58" t="n">
-        <v>4205385000000</v>
-      </c>
+        <v>7081102000000</v>
+      </c>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="n">
-        <v>8725879000000</v>
+        <v>7076745420938</v>
       </c>
       <c r="Q58" t="n">
-        <v>7791692000000</v>
+        <v>7027449810020</v>
       </c>
     </row>
     <row r="59">
@@ -2545,27 +2505,33 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="H59" t="n">
+        <v>79870000000</v>
+      </c>
+      <c r="I59" t="n">
+        <v>72737000000</v>
+      </c>
+      <c r="J59" t="n">
+        <v>65526000000</v>
+      </c>
+      <c r="K59" t="n">
+        <v>195492000000</v>
+      </c>
       <c r="L59" t="n">
-        <v>79870000000</v>
+        <v>176509000000</v>
       </c>
       <c r="M59" t="n">
-        <v>72737000000</v>
+        <v>157316000000</v>
       </c>
       <c r="N59" t="n">
-        <v>65526000000</v>
-      </c>
-      <c r="O59" t="n">
-        <v>195492000000</v>
-      </c>
+        <v>137911000000</v>
+      </c>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="n">
-        <v>176509000000</v>
+        <v>99312979769</v>
       </c>
       <c r="Q59" t="n">
-        <v>157316000000</v>
+        <v>80119406777</v>
       </c>
     </row>
     <row r="60">
@@ -2759,52 +2725,50 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>358236462000000</v>
+        <v>413892030000000</v>
       </c>
       <c r="C68" t="n">
-        <v>377213836000000</v>
+        <v>419026527000000</v>
       </c>
       <c r="D68" t="n">
-        <v>393208887000000</v>
+        <v>436241186000000</v>
       </c>
       <c r="E68" t="n">
-        <v>399473210000000</v>
+        <v>451767038000000</v>
       </c>
       <c r="F68" t="n">
-        <v>413892030000000</v>
+        <v>479431926000000</v>
       </c>
       <c r="G68" t="n">
-        <v>419026527000000</v>
+        <v>547626129000000</v>
       </c>
       <c r="H68" t="n">
-        <v>436241186000000</v>
+        <v>563923685000000</v>
       </c>
       <c r="I68" t="n">
-        <v>451767038000000</v>
+        <v>608275139000000</v>
       </c>
       <c r="J68" t="n">
-        <v>479431926000000</v>
+        <v>595901874000000</v>
       </c>
       <c r="K68" t="n">
-        <v>547626129000000</v>
+        <v>631073662000000</v>
       </c>
       <c r="L68" t="n">
-        <v>563923685000000</v>
+        <v>677623733000000</v>
       </c>
       <c r="M68" t="n">
-        <v>608275139000000</v>
+        <v>739761986000000</v>
       </c>
       <c r="N68" t="n">
-        <v>595901874000000</v>
-      </c>
-      <c r="O68" t="n">
-        <v>631073662000000</v>
-      </c>
+        <v>780212730000000</v>
+      </c>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="n">
-        <v>677623733000000</v>
+        <v>822366981435242</v>
       </c>
       <c r="Q68" t="n">
-        <v>739761986000000</v>
+        <v>864391982566033</v>
       </c>
     </row>
     <row r="69">
@@ -2814,52 +2778,50 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2019968000000</v>
+        <v>15626000000</v>
       </c>
       <c r="C69" t="n">
-        <v>19492000000</v>
+        <v>14220000000</v>
       </c>
       <c r="D69" t="n">
-        <v>18594000000</v>
+        <v>29616000000</v>
       </c>
       <c r="E69" t="n">
-        <v>16875000000</v>
+        <v>12551000000</v>
       </c>
       <c r="F69" t="n">
-        <v>15626000000</v>
+        <v>15338000000</v>
       </c>
       <c r="G69" t="n">
-        <v>14220000000</v>
+        <v>8454375000000</v>
       </c>
       <c r="H69" t="n">
-        <v>29616000000</v>
+        <v>1300869000000</v>
       </c>
       <c r="I69" t="n">
-        <v>12551000000</v>
+        <v>12583000000</v>
       </c>
       <c r="J69" t="n">
-        <v>15338000000</v>
+        <v>10796000000</v>
       </c>
       <c r="K69" t="n">
-        <v>8454375000000</v>
+        <v>1929233000000</v>
       </c>
       <c r="L69" t="n">
-        <v>1300869000000</v>
+        <v>966003000000</v>
       </c>
       <c r="M69" t="n">
-        <v>12583000000</v>
+        <v>30479000000</v>
       </c>
       <c r="N69" t="n">
-        <v>10796000000</v>
-      </c>
-      <c r="O69" t="n">
-        <v>1929233000000</v>
-      </c>
+        <v>12923000000</v>
+      </c>
+      <c r="O69" t="inlineStr"/>
       <c r="P69" t="n">
-        <v>966003000000</v>
+        <v>111865349870</v>
       </c>
       <c r="Q69" t="n">
-        <v>30479000000</v>
+        <v>387939724009</v>
       </c>
     </row>
     <row r="70">
@@ -3076,52 +3038,50 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>40102564000000</v>
+        <v>49543378000000</v>
       </c>
       <c r="C79" t="n">
-        <v>50867989000000</v>
+        <v>56511282000000</v>
       </c>
       <c r="D79" t="n">
-        <v>63734621000000</v>
+        <v>70921932000000</v>
       </c>
       <c r="E79" t="n">
-        <v>46402397000000</v>
+        <v>78220737000000</v>
       </c>
       <c r="F79" t="n">
-        <v>49543378000000</v>
+        <v>97888875000000</v>
       </c>
       <c r="G79" t="n">
-        <v>56511282000000</v>
+        <v>114619106000000</v>
       </c>
       <c r="H79" t="n">
-        <v>70921932000000</v>
+        <v>103754590000000</v>
       </c>
       <c r="I79" t="n">
-        <v>78220737000000</v>
+        <v>122797129000000</v>
       </c>
       <c r="J79" t="n">
-        <v>97888875000000</v>
+        <v>128584980000000</v>
       </c>
       <c r="K79" t="n">
-        <v>114619106000000</v>
+        <v>140249116000000</v>
       </c>
       <c r="L79" t="n">
-        <v>103754590000000</v>
+        <v>139929833000000</v>
       </c>
       <c r="M79" t="n">
-        <v>122797129000000</v>
+        <v>153746278000000</v>
       </c>
       <c r="N79" t="n">
-        <v>128584980000000</v>
-      </c>
-      <c r="O79" t="n">
-        <v>140249116000000</v>
-      </c>
+        <v>160069135000000</v>
+      </c>
+      <c r="O79" t="inlineStr"/>
       <c r="P79" t="n">
-        <v>139929833000000</v>
+        <v>153846615331298</v>
       </c>
       <c r="Q79" t="n">
-        <v>153746278000000</v>
+        <v>178580695899453</v>
       </c>
     </row>
     <row r="80">
@@ -3131,52 +3091,50 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>6358256000000</v>
+        <v>5348308000000</v>
       </c>
       <c r="C80" t="n">
-        <v>12144371000000</v>
+        <v>9371444000000</v>
       </c>
       <c r="D80" t="n">
-        <v>11453889000000</v>
+        <v>22498207000000</v>
       </c>
       <c r="E80" t="n">
-        <v>1067249000000</v>
+        <v>25878105000000</v>
       </c>
       <c r="F80" t="n">
-        <v>5348308000000</v>
+        <v>38860715000000</v>
       </c>
       <c r="G80" t="n">
-        <v>9371444000000</v>
+        <v>47106801000000</v>
       </c>
       <c r="H80" t="n">
-        <v>22498207000000</v>
+        <v>37726286000000</v>
       </c>
       <c r="I80" t="n">
-        <v>25878105000000</v>
+        <v>43005291000000</v>
       </c>
       <c r="J80" t="n">
-        <v>38860715000000</v>
+        <v>46545936000000</v>
       </c>
       <c r="K80" t="n">
-        <v>47106801000000</v>
+        <v>51325927000000</v>
       </c>
       <c r="L80" t="n">
-        <v>37726286000000</v>
+        <v>60937487000000</v>
       </c>
       <c r="M80" t="n">
-        <v>43005291000000</v>
+        <v>79426408000000</v>
       </c>
       <c r="N80" t="n">
-        <v>46545936000000</v>
-      </c>
-      <c r="O80" t="n">
-        <v>51325927000000</v>
-      </c>
+        <v>80100321000000</v>
+      </c>
+      <c r="O80" t="inlineStr"/>
       <c r="P80" t="n">
-        <v>60937487000000</v>
+        <v>77529894584571</v>
       </c>
       <c r="Q80" t="n">
-        <v>79426408000000</v>
+        <v>81845869645499</v>
       </c>
     </row>
     <row r="81">
@@ -3186,52 +3144,50 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>33744308000000</v>
+        <v>44195070000000</v>
       </c>
       <c r="C81" t="n">
-        <v>38723618000000</v>
+        <v>47139838000000</v>
       </c>
       <c r="D81" t="n">
-        <v>52280732000000</v>
+        <v>48423725000000</v>
       </c>
       <c r="E81" t="n">
-        <v>45335148000000</v>
+        <v>52342632000000</v>
       </c>
       <c r="F81" t="n">
-        <v>44195070000000</v>
+        <v>59028160000000</v>
       </c>
       <c r="G81" t="n">
-        <v>47139838000000</v>
+        <v>67512305000000</v>
       </c>
       <c r="H81" t="n">
-        <v>48423725000000</v>
+        <v>65028304000000</v>
       </c>
       <c r="I81" t="n">
-        <v>52342632000000</v>
+        <v>79791838000000</v>
       </c>
       <c r="J81" t="n">
-        <v>59028160000000</v>
+        <v>82039044000000</v>
       </c>
       <c r="K81" t="n">
-        <v>67512305000000</v>
+        <v>88923189000000</v>
       </c>
       <c r="L81" t="n">
-        <v>65028304000000</v>
+        <v>78992346000000</v>
       </c>
       <c r="M81" t="n">
-        <v>79791838000000</v>
+        <v>74319870000000</v>
       </c>
       <c r="N81" t="n">
-        <v>82039044000000</v>
-      </c>
-      <c r="O81" t="n">
-        <v>88923189000000</v>
-      </c>
+        <v>79968814000000</v>
+      </c>
+      <c r="O81" t="inlineStr"/>
       <c r="P81" t="n">
-        <v>78992346000000</v>
+        <v>76316720746727</v>
       </c>
       <c r="Q81" t="n">
-        <v>74319870000000</v>
+        <v>96734826253954</v>
       </c>
     </row>
     <row r="82">
@@ -3287,52 +3243,50 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>205585380000000</v>
+        <v>241657962000000</v>
       </c>
       <c r="C84" t="n">
-        <v>213949567000000</v>
+        <v>233427953000000</v>
       </c>
       <c r="D84" t="n">
-        <v>215715762000000</v>
+        <v>232426703000000</v>
       </c>
       <c r="E84" t="n">
-        <v>236776714000000</v>
+        <v>233591350000000</v>
       </c>
       <c r="F84" t="n">
-        <v>241657962000000</v>
+        <v>239357320000000</v>
       </c>
       <c r="G84" t="n">
-        <v>233427953000000</v>
+        <v>241837028000000</v>
       </c>
       <c r="H84" t="n">
-        <v>232426703000000</v>
+        <v>274148697000000</v>
       </c>
       <c r="I84" t="n">
-        <v>233591350000000</v>
+        <v>295419571000000</v>
       </c>
       <c r="J84" t="n">
-        <v>239357320000000</v>
+        <v>277422332000000</v>
       </c>
       <c r="K84" t="n">
-        <v>241837028000000</v>
+        <v>303151417000000</v>
       </c>
       <c r="L84" t="n">
-        <v>274148697000000</v>
+        <v>331184428000000</v>
       </c>
       <c r="M84" t="n">
-        <v>295419571000000</v>
+        <v>387611144000000</v>
       </c>
       <c r="N84" t="n">
-        <v>277422332000000</v>
-      </c>
-      <c r="O84" t="n">
-        <v>303151417000000</v>
-      </c>
+        <v>421471748000000</v>
+      </c>
+      <c r="O84" t="inlineStr"/>
       <c r="P84" t="n">
-        <v>331184428000000</v>
+        <v>455817477958237</v>
       </c>
       <c r="Q84" t="n">
-        <v>387611144000000</v>
+        <v>471348616426807</v>
       </c>
     </row>
     <row r="85">
@@ -3549,40 +3503,36 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>12053000000</v>
+        <v>123635000000</v>
       </c>
       <c r="C94" t="n">
-        <v>45670000000</v>
-      </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="n">
-        <v>196919000000</v>
-      </c>
+        <v>139825000000</v>
+      </c>
+      <c r="D94" t="n">
+        <v>64334000000</v>
+      </c>
+      <c r="E94" t="inlineStr"/>
       <c r="F94" t="n">
-        <v>123635000000</v>
-      </c>
-      <c r="G94" t="n">
-        <v>139825000000</v>
-      </c>
-      <c r="H94" t="n">
-        <v>64334000000</v>
-      </c>
+        <v>76316000000</v>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>76316000000</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>15369000000</v>
+      </c>
+      <c r="L94" t="n">
+        <v>825092000000</v>
+      </c>
+      <c r="M94" t="n">
+        <v>839051000000</v>
+      </c>
       <c r="N94" t="inlineStr"/>
-      <c r="O94" t="n">
-        <v>15369000000</v>
-      </c>
-      <c r="P94" t="n">
-        <v>825092000000</v>
-      </c>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
       <c r="Q94" t="n">
-        <v>839051000000</v>
+        <v>1023281779553</v>
       </c>
     </row>
     <row r="95">
@@ -3661,52 +3611,50 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>317745217000000</v>
+        <v>364165757000000</v>
       </c>
       <c r="C98" t="n">
-        <v>334996327000000</v>
+        <v>366233025000000</v>
       </c>
       <c r="D98" t="n">
-        <v>348685150000000</v>
+        <v>380245874000000</v>
       </c>
       <c r="E98" t="n">
-        <v>351998451000000</v>
+        <v>391755363000000</v>
       </c>
       <c r="F98" t="n">
-        <v>364165757000000</v>
+        <v>417109431000000</v>
       </c>
       <c r="G98" t="n">
-        <v>366233025000000</v>
+        <v>461174630000000</v>
       </c>
       <c r="H98" t="n">
-        <v>380245874000000</v>
+        <v>468721666000000</v>
       </c>
       <c r="I98" t="n">
-        <v>391755363000000</v>
+        <v>509751315000000</v>
       </c>
       <c r="J98" t="n">
-        <v>417109431000000</v>
+        <v>493535620000000</v>
       </c>
       <c r="K98" t="n">
-        <v>461174630000000</v>
+        <v>527556773000000</v>
       </c>
       <c r="L98" t="n">
-        <v>468721666000000</v>
+        <v>572526094000000</v>
       </c>
       <c r="M98" t="n">
-        <v>509751315000000</v>
+        <v>632198116000000</v>
       </c>
       <c r="N98" t="n">
-        <v>493535620000000</v>
-      </c>
-      <c r="O98" t="n">
-        <v>527556773000000</v>
-      </c>
+        <v>670221182000000</v>
+      </c>
+      <c r="O98" t="inlineStr"/>
       <c r="P98" t="n">
-        <v>572526094000000</v>
+        <v>679429572082594</v>
       </c>
       <c r="Q98" t="n">
-        <v>632198116000000</v>
+        <v>726324844351303</v>
       </c>
     </row>
     <row r="99">
@@ -3729,8 +3677,12 @@
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
+      <c r="P99" t="n">
+        <v>103331782055455</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>103331782055455</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3754,37 +3706,35 @@
         <v>25299680000000</v>
       </c>
       <c r="G100" t="n">
-        <v>25299680000000</v>
+        <v>45056930000000</v>
       </c>
       <c r="H100" t="n">
-        <v>25299680000000</v>
+        <v>45056930000000</v>
       </c>
       <c r="I100" t="n">
-        <v>25299680000000</v>
+        <v>45056930000000</v>
       </c>
       <c r="J100" t="n">
-        <v>25299680000000</v>
+        <v>45056930000000</v>
       </c>
       <c r="K100" t="n">
-        <v>45056930000000</v>
+        <v>67434236000000</v>
       </c>
       <c r="L100" t="n">
-        <v>45056930000000</v>
+        <v>67434236000000</v>
       </c>
       <c r="M100" t="n">
-        <v>45056930000000</v>
+        <v>67434236000000</v>
       </c>
       <c r="N100" t="n">
-        <v>45056930000000</v>
-      </c>
-      <c r="O100" t="n">
         <v>67434236000000</v>
       </c>
+      <c r="O100" t="inlineStr"/>
       <c r="P100" t="n">
-        <v>67434236000000</v>
+        <v>79339236010000</v>
       </c>
       <c r="Q100" t="n">
-        <v>67434236000000</v>
+        <v>79339236010000</v>
       </c>
     </row>
     <row r="101">
@@ -3863,45 +3813,41 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1289001000000</v>
+        <v>692720000000</v>
       </c>
       <c r="C104" t="n">
-        <v>692720000000</v>
+        <v>365727000000</v>
       </c>
       <c r="D104" t="n">
-        <v>692720000000</v>
+        <v>365727000000</v>
       </c>
       <c r="E104" t="n">
-        <v>692720000000</v>
+        <v>365727000000</v>
       </c>
       <c r="F104" t="n">
-        <v>692720000000</v>
+        <v>77202000000</v>
       </c>
       <c r="G104" t="n">
-        <v>365727000000</v>
+        <v>77202000000</v>
       </c>
       <c r="H104" t="n">
-        <v>365727000000</v>
+        <v>77202000000</v>
       </c>
       <c r="I104" t="n">
-        <v>365727000000</v>
-      </c>
-      <c r="J104" t="n">
         <v>77202000000</v>
       </c>
-      <c r="K104" t="n">
-        <v>77202000000</v>
-      </c>
-      <c r="L104" t="n">
-        <v>77202000000</v>
-      </c>
-      <c r="M104" t="n">
-        <v>77202000000</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
+      <c r="P104" t="n">
+        <v>23992546045455</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>23992546045455</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3910,51 +3856,45 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-2491721000000</v>
+        <v>-2696030000000</v>
       </c>
       <c r="C105" t="n">
-        <v>-2696030000000</v>
+        <v>-2199037000000</v>
       </c>
       <c r="D105" t="n">
-        <v>-2696030000000</v>
+        <v>-2199037000000</v>
       </c>
       <c r="E105" t="n">
-        <v>-2696030000000</v>
-      </c>
-      <c r="F105" t="n">
-        <v>-2696030000000</v>
-      </c>
+        <v>-2199037</v>
+      </c>
+      <c r="F105" t="inlineStr"/>
       <c r="G105" t="n">
-        <v>-2199037000000</v>
+        <v>-1760512000000</v>
       </c>
       <c r="H105" t="n">
-        <v>-2199037000000</v>
+        <v>-1760512000000</v>
       </c>
       <c r="I105" t="n">
-        <v>-2199037</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
+        <v>-1760512000000</v>
+      </c>
+      <c r="J105" t="n">
+        <v>-883466000000</v>
+      </c>
       <c r="K105" t="n">
-        <v>-1760512000000</v>
+        <v>-883466000000</v>
       </c>
       <c r="L105" t="n">
-        <v>-1760512000000</v>
+        <v>-883466000000</v>
       </c>
       <c r="M105" t="n">
-        <v>-1760512000000</v>
+        <v>-883466000000</v>
       </c>
       <c r="N105" t="n">
         <v>-883466000000</v>
       </c>
-      <c r="O105" t="n">
-        <v>-883466000000</v>
-      </c>
-      <c r="P105" t="n">
-        <v>-883466000000</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>-883466000000</v>
-      </c>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4078,52 +4018,50 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>5821080000000</v>
+        <v>8710260000000</v>
       </c>
       <c r="C111" t="n">
-        <v>7108571000000</v>
+        <v>11911768000000</v>
       </c>
       <c r="D111" t="n">
-        <v>7107405000000</v>
+        <v>11911768000000</v>
       </c>
       <c r="E111" t="n">
-        <v>8710260000000</v>
+        <v>9196666000000</v>
       </c>
       <c r="F111" t="n">
-        <v>8710260000000</v>
+        <v>12796666000000</v>
       </c>
       <c r="G111" t="n">
-        <v>11911768000000</v>
+        <v>12584835000000</v>
       </c>
       <c r="H111" t="n">
-        <v>11911768000000</v>
+        <v>12558832000000</v>
       </c>
       <c r="I111" t="n">
-        <v>9196666000000</v>
+        <v>12530082000000</v>
       </c>
       <c r="J111" t="n">
-        <v>12796666000000</v>
+        <v>12030238000000</v>
       </c>
       <c r="K111" t="n">
-        <v>12584835000000</v>
+        <v>13535062000000</v>
       </c>
       <c r="L111" t="n">
-        <v>12558832000000</v>
+        <v>13535084000000</v>
       </c>
       <c r="M111" t="n">
-        <v>12530082000000</v>
+        <v>11486043000000</v>
       </c>
       <c r="N111" t="n">
-        <v>12030238000000</v>
-      </c>
-      <c r="O111" t="n">
-        <v>13535062000000</v>
-      </c>
+        <v>11486043000000</v>
+      </c>
+      <c r="O111" t="inlineStr"/>
       <c r="P111" t="n">
-        <v>13535084000000</v>
+        <v>12233281752830</v>
       </c>
       <c r="Q111" t="n">
-        <v>11486043000000</v>
+        <v>11675090434799</v>
       </c>
     </row>
     <row r="112">
@@ -4247,9 +4185,7 @@
           <t>II. Nguồn kinh phí và quỹ khác</t>
         </is>
       </c>
-      <c r="B117" t="n">
-        <v>-12578000000</v>
-      </c>
+      <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
